--- a/Documentação/Planilha de Software.xlsx
+++ b/Documentação/Planilha de Software.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a08d7f3c16d54179/Área de Trabalho/project-hunter/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C67F3E-8416-449C-979C-AAB2F644F075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{73F56540-E790-4A30-8510-5D848F3EE60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F2054AF-5E0F-4B7E-B821-399FC17F1908}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>MECANISMO DE IMPLEMENTAÇÃO</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Definição do ambiente de produção para a utilização da solução</t>
   </si>
   <si>
-    <t>? Windows ? Linux ? Firefox</t>
-  </si>
-  <si>
     <t>Definição de como o software será documentado e o que será documentado na solução</t>
   </si>
   <si>
@@ -168,27 +165,15 @@
     <t>Definição das ferramentas para o desenvolvimento</t>
   </si>
   <si>
-    <t>? IIS ? Tomcat ?</t>
-  </si>
-  <si>
     <t>Agente de Coleta</t>
   </si>
   <si>
-    <t>Exemplo: TXT com info de erros, segurança, etc.</t>
-  </si>
-  <si>
     <t>Exemplo: SDK para IoT</t>
   </si>
   <si>
-    <t>Exemplo: Azure DevOps</t>
-  </si>
-  <si>
     <t>Configuração da IDE de deploy automatizado</t>
   </si>
   <si>
-    <t>Exemplo: Token ou SSO Com Google</t>
-  </si>
-  <si>
     <t>Integração contínua</t>
   </si>
   <si>
@@ -241,6 +226,15 @@
   </si>
   <si>
     <t>Azure SQL Server, Telegram</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>TXT com info de erros</t>
   </si>
 </sst>
 </file>
@@ -318,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -406,11 +400,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -433,10 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -448,21 +462,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -473,15 +472,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +770,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -778,130 +783,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>71</v>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>58</v>
+      <c r="D3" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>49</v>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>50</v>
+      <c r="D6" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>59</v>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="23" t="s">
+      <c r="D8" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>55</v>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
@@ -909,11 +914,14 @@
         <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -922,12 +930,12 @@
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>61</v>
+      <c r="D13" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -935,85 +943,90 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>47</v>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>41</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1021,35 +1034,35 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>69</v>
+      <c r="D24" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
@@ -1057,11 +1070,11 @@
         <v>11</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
